--- a/project1/css.xlsx
+++ b/project1/css.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>opacity</t>
   </si>
@@ -45,6 +45,75 @@
   </si>
   <si>
     <t>height: 100vh</t>
+  </si>
+  <si>
+    <t>Filter Elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lọc thẻ div </t>
+  </si>
+  <si>
+    <t>boxsizeing:borderbox</t>
+  </si>
+  <si>
+    <t>tự bù trừ pading margin để ko thay đổi kích thước định sẵn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cursor</t>
+  </si>
+  <si>
+    <t>đổi trỏ chuột khi rê vào thẻ</t>
+  </si>
+  <si>
+    <t>cuộn làm mờ menu</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/howto/howto_js_navbar_slide.asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backkground: transparent </t>
+  </si>
+  <si>
+    <t>làm bg trong suốt</t>
+  </si>
+  <si>
+    <t>transform: rotate(180deg);</t>
+  </si>
+  <si>
+    <t>xoay</t>
+  </si>
+  <si>
+    <t>translate(-50%,-50%);</t>
+  </si>
+  <si>
+    <t>chuyển vị trị theo trục ox, oy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuộn lên trang home </t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/howto/howto_js_scroll_to_top.asp</t>
+  </si>
+  <si>
+    <t>overflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cho 1 phần từ tràn ra ko </t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/howto/howto_css_login_form.asp</t>
+  </si>
+  <si>
+    <t>visibility: visible; animation-duration: 1.5s; animation-name: fadeIn;</t>
+  </si>
+  <si>
+    <t>tại sao khi để ảnh vào div thì ảnh k hiển thị phải xét chiều cao cho nó mới hiển</t>
+  </si>
+  <si>
+    <t>link animation : https://youtube.com/shorts/Ip3bt7QgZMI?si=5tdUo5_iO3ptJnZu</t>
   </si>
 </sst>
 </file>
@@ -57,7 +126,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,11 +141,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -541,154 +615,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,16 +1086,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J4"/>
+  <dimension ref="B2:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="22.287037037037" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" ht="15.75"/>
-    <row r="3" ht="15.75" spans="3:7">
+    <row r="2" ht="15.15"/>
+    <row r="3" ht="15.15" spans="3:7">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1120,105 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" ht="30" spans="3:5">
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="15:18">
+      <c r="O9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="4:18">
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="15:18">
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R9" r:id="rId1" display="https://www.w3schools.com/howto/howto_js_navbar_slide.asp" tooltip="https://www.w3schools.com/howto/howto_js_navbar_slide.asp"/>
+    <hyperlink ref="R12" r:id="rId2" display="https://www.w3schools.com/howto/howto_js_scroll_to_top.asp" tooltip="https://www.w3schools.com/howto/howto_js_scroll_to_top.asp"/>
+    <hyperlink ref="R15" r:id="rId3" display="https://www.w3schools.com/howto/howto_css_login_form.asp" tooltip="https://www.w3schools.com/howto/howto_css_login_form.asp"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/project1/css.xlsx
+++ b/project1/css.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>opacity</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>link animation : https://youtube.com/shorts/Ip3bt7QgZMI?si=5tdUo5_iO3ptJnZu</t>
+  </si>
+  <si>
+    <t>link active menu:  https://www.youtube.com/watch?v=UoE1hqfpXX0&amp;ab_channel=Codehal</t>
+  </si>
+  <si>
+    <t>TRANSION</t>
+  </si>
+  <si>
+    <t>https://youtu.be/2ktMFwbcI34?si=MWmc0bCtnox5r9b-</t>
   </si>
 </sst>
 </file>
@@ -1086,19 +1095,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:R39"/>
+  <dimension ref="B2:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="22.287037037037" customWidth="1"/>
+    <col min="4" max="4" width="22.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.15"/>
-    <row r="3" ht="15.15" spans="3:7">
+    <row r="2" ht="15.75"/>
+    <row r="3" ht="15.75" spans="3:7">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="30" spans="3:5">
+    <row r="5" ht="28.5" spans="3:5">
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1211,6 +1220,19 @@
     <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
